--- a/target/test-classes/test-data/emi_data.xlsx
+++ b/target/test-classes/test-data/emi_data.xlsx
@@ -13,8 +13,8 @@
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoanDetails" r:id="rId6" sheetId="120"/>
-    <sheet name="YearlyData" r:id="rId7" sheetId="121"/>
+    <sheet name="LoanDetails" r:id="rId6" sheetId="112"/>
+    <sheet name="YearlyData" r:id="rId7" sheetId="113"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18317" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16985" uniqueCount="151">
   <si>
     <t>Home loan details</t>
   </si>
@@ -815,7 +815,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -929,7 +929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G30"/>
   <sheetViews>
